--- a/Structure/1 - Whole System/BalanceMultipliers.xlsx
+++ b/Structure/1 - Whole System/BalanceMultipliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421DB210-DB61-483E-AF7C-B055A86DE954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{421DB210-DB61-483E-AF7C-B055A86DE954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99E814AB-D8A0-4B10-876E-768625DBB793}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BD192299-FA05-4E49-8312-0E1BF0AE38BE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Unit</t>
   </si>
@@ -42,16 +42,7 @@
     <t>ktoe</t>
   </si>
   <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>MWh</t>
-  </si>
-  <si>
     <t>GWh</t>
-  </si>
-  <si>
-    <t>TWh</t>
   </si>
 </sst>
 </file>
@@ -403,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B4C992-E6F2-405B-ACA1-779CCF1BCA0B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,34 +426,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11630</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f>B3/1000</f>
-        <v>11.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f>B4/1000</f>
         <v>1.1630000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>B5/1000</f>
-        <v>1.1630000000000002E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Structure/1 - Whole System/BalanceMultipliers.xlsx
+++ b/Structure/1 - Whole System/BalanceMultipliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{421DB210-DB61-483E-AF7C-B055A86DE954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99E814AB-D8A0-4B10-876E-768625DBB793}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{421DB210-DB61-483E-AF7C-B055A86DE954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{326713FD-8CA4-478B-B232-5D8A008A6DCA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BD192299-FA05-4E49-8312-0E1BF0AE38BE}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>ktoe</t>
   </si>
   <si>
-    <t>GWh</t>
+    <t>TWh</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Structure/1 - Whole System/BalanceMultipliers.xlsx
+++ b/Structure/1 - Whole System/BalanceMultipliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{421DB210-DB61-483E-AF7C-B055A86DE954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{326713FD-8CA4-478B-B232-5D8A008A6DCA}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{421DB210-DB61-483E-AF7C-B055A86DE954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A71E4BA3-233A-4402-AC61-BC0CB7D8F8A9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BD192299-FA05-4E49-8312-0E1BF0AE38BE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Unit</t>
   </si>
@@ -44,11 +44,17 @@
   <si>
     <t>TWh</t>
   </si>
+  <si>
+    <t>PJ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B4C992-E6F2-405B-ACA1-779CCF1BCA0B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,7 +424,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -425,8 +432,17 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.1630000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f>0.000041868*1000</f>
+        <v>4.1868000000000002E-2</v>
       </c>
     </row>
   </sheetData>
